--- a/Homeworks/03BHW/cequel_hw_5-11.xlsx
+++ b/Homeworks/03BHW/cequel_hw_5-11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veronica\Documents\MAE640\Homeworks\03BHW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6efa69250b06236a/Documents/MAE640/Homeworks/03BHW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC65A18-4FC3-4FEA-910A-6F4F16A46F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{CFC65A18-4FC3-4FEA-910A-6F4F16A46F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50ED5F2C-A54B-465D-961B-82AD2D3E5F2E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,21 +769,21 @@
     <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -794,7 +794,7 @@
         <v>7.9365079999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -807,7 +807,7 @@
         <v>50.662500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="24" t="s">
@@ -829,8 +829,11 @@
         <v>60</v>
       </c>
       <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -851,8 +854,11 @@
       <c r="F7" s="12">
         <v>7.9365081787109375</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,7 +880,7 @@
         <v>11.19005298614502</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +901,12 @@
       <c r="F9" s="14">
         <v>1.0000219345092773</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f>H6/(4*H7)</f>
+        <v>7.9920079920079932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,7 +928,7 @@
         <v>1.0000219345092773</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,8 +949,12 @@
       <c r="F11" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f>16/2.002</f>
+        <v>7.9920079920079932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -961,8 +975,12 @@
       <c r="F12" s="8">
         <v>29.352645874023438</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f>32/C3</f>
+        <v>4.0319999677440004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -983,8 +1001,12 @@
       <c r="F13" s="8">
         <v>3458.98876953125</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f>H12/4</f>
+        <v>1.0079999919360001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +1028,7 @@
         <v>1.6244213581085205</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1028,7 +1050,7 @@
         <v>-1017.2107543945313</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
